--- a/Statystyki_2018/Template/okrd_.xlsx
+++ b/Statystyki_2018/Template/okrd_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev-Klon-wap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myProjects\prv\statystyki\Statystyki_2018\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F586139-CF45-4E80-BFD9-D07FE9692709}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9839B66C-3372-4B8D-B2A7-35A62A5825C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9768" windowHeight="3840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>luty 2014r.</t>
   </si>
@@ -39,12 +39,12 @@
     <t>CZYNNOŚCI WYKONANE + UTWORZONE</t>
   </si>
   <si>
+    <t>Funkcja</t>
+  </si>
+  <si>
     <t>Imię i nazwisko</t>
   </si>
   <si>
-    <t>Funkcja</t>
-  </si>
-  <si>
     <t>etat</t>
   </si>
   <si>
@@ -87,22 +87,40 @@
     <t>ilość czynności zakreśłonych bez daty wykonania I</t>
   </si>
   <si>
-    <t>Krystian 0</t>
-  </si>
-  <si>
-    <t>Ula 0</t>
-  </si>
-  <si>
-    <t>Ala 0</t>
-  </si>
-  <si>
-    <t>Jan 1</t>
-  </si>
-  <si>
-    <t>Michał 2</t>
-  </si>
-  <si>
-    <t>tomasz 0</t>
+    <t>inna funkcja</t>
+  </si>
+  <si>
+    <t>Kordyka Krystian</t>
+  </si>
+  <si>
+    <t>sędzia liniowy</t>
+  </si>
+  <si>
+    <t>Kowalewska Ala</t>
+  </si>
+  <si>
+    <t>Kowalewska-KowalewskaKowalewska Ula</t>
+  </si>
+  <si>
+    <t>przewodniczący wydziału</t>
+  </si>
+  <si>
+    <t>Nowak Jan</t>
+  </si>
+  <si>
+    <t>6023.15</t>
+  </si>
+  <si>
+    <t>8023.15</t>
+  </si>
+  <si>
+    <t>Sokołowski Michał</t>
+  </si>
+  <si>
+    <t>prezes</t>
+  </si>
+  <si>
+    <t>trzaskowski tomasz</t>
   </si>
 </sst>
 </file>
@@ -226,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -350,6 +368,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF008000" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF008000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF008000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF008000" tint="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -373,100 +406,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="8" applyFill="1" borderId="5" applyBorder="1" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="9" applyFill="1" borderId="5" applyBorder="1" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="10" applyFill="1" borderId="5" applyBorder="1" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="6" applyFill="1" borderId="6" applyBorder="1" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="6" applyFill="1" borderId="5" applyBorder="1" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="7" applyFill="1" borderId="7" applyBorder="1" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="7" applyFill="1" borderId="8" applyBorder="1" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="8" applyFill="1" borderId="9" applyBorder="1" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="9" applyFill="1" borderId="9" applyBorder="1" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="10" applyFill="1" borderId="9" applyBorder="1" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="6" applyFill="1" borderId="9" applyBorder="1" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="7" applyFill="1" borderId="9" applyBorder="1" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="7" applyFill="1" borderId="4" applyBorder="1" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="6" applyFill="1" borderId="2" applyBorder="1" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="5" applyFill="1" borderId="3" applyBorder="1" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="8" applyFill="1" borderId="5" applyBorder="1" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="9" applyFill="1" borderId="5" applyBorder="1" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="10" applyFill="1" borderId="5" applyBorder="1" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="6" applyFill="1" borderId="6" applyBorder="1" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="6" applyFill="1" borderId="5" applyBorder="1" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="7" applyFill="1" borderId="7" applyBorder="1" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="7" applyFill="1" borderId="8" applyBorder="1" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="8" applyFill="1" borderId="9" applyBorder="1" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="9" applyFill="1" borderId="9" applyBorder="1" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="10" applyFill="1" borderId="9" applyBorder="1" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="6" applyFill="1" borderId="9" applyBorder="1" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="7" applyFill="1" borderId="9" applyBorder="1" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="4" applyFill="1" borderId="2" applyBorder="1" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="5" applyFill="1" borderId="3" applyBorder="1" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="6" applyFill="1" borderId="2" applyBorder="1" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" xfId="0">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" xfId="0">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -850,480 +886,517 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD46"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="34.77734375" customWidth="1"/>
-    <col min="2" max="1025" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="51.44140625" customWidth="1"/>
+    <col min="3" max="1025" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="38.85" customHeight="1">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="10">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="4">
         <v>20</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="5" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="3" t="s">
+      <c r="K1" s="28"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="2" t="s">
+      <c r="P1" s="30"/>
+      <c r="Q1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="12"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="6"/>
     </row>
     <row r="2" ht="96.6">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="R2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" ht="13.8">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="9">
         <v>2</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="9">
         <v>3</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="9">
         <v>4</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="10">
         <v>5</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="10">
         <v>6</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="10">
         <v>7</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="10">
         <v>8</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="11">
         <v>9</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="20">
         <v>10</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="13">
         <v>11</v>
       </c>
-      <c r="M3" s="27">
+      <c r="M3" s="21">
         <v>12</v>
       </c>
-      <c r="N3" s="28">
+      <c r="N3" s="22">
         <v>13</v>
       </c>
-      <c r="O3" s="22">
+      <c r="O3" s="16">
         <v>14</v>
       </c>
-      <c r="P3" s="29">
+      <c r="P3" s="23">
         <v>15</v>
       </c>
-      <c r="Q3" s="24">
+      <c r="Q3" s="18">
         <v>16</v>
       </c>
-      <c r="R3" s="30">
+      <c r="R3" s="24">
         <v>17</v>
       </c>
-      <c r="S3" s="16">
+      <c r="S3" s="10">
         <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="33">
+        <v>0</v>
+      </c>
+      <c r="D4" s="33">
+        <v>0</v>
+      </c>
+      <c r="E4" s="33">
+        <v>0</v>
+      </c>
+      <c r="F4" s="33">
+        <v>0</v>
+      </c>
+      <c r="G4" s="33">
+        <v>0</v>
+      </c>
+      <c r="H4" s="33">
+        <v>0</v>
+      </c>
+      <c r="I4" s="33">
+        <v>0</v>
+      </c>
+      <c r="J4" s="33">
+        <v>0</v>
+      </c>
+      <c r="K4" s="33">
+        <v>0</v>
+      </c>
+      <c r="L4" s="33">
+        <v>0</v>
+      </c>
+      <c r="M4" s="33">
+        <v>0</v>
+      </c>
+      <c r="N4" s="33">
+        <v>0</v>
+      </c>
+      <c r="O4" s="33">
+        <v>0</v>
+      </c>
+      <c r="P4" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="33">
+        <v>0</v>
+      </c>
+      <c r="R4" s="33">
+        <v>0</v>
+      </c>
+      <c r="S4" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="32">
-        <v>0</v>
-      </c>
-      <c r="C5" s="32">
-        <v>0</v>
-      </c>
-      <c r="D5" s="32">
-        <v>0</v>
-      </c>
-      <c r="E5" s="32">
-        <v>0</v>
-      </c>
-      <c r="F5" s="32">
-        <v>0</v>
-      </c>
-      <c r="G5" s="32">
-        <v>0</v>
-      </c>
-      <c r="H5" s="32">
-        <v>0</v>
-      </c>
-      <c r="I5" s="32">
-        <v>0</v>
-      </c>
-      <c r="J5" s="32">
-        <v>0</v>
-      </c>
-      <c r="K5" s="32">
-        <v>0</v>
-      </c>
-      <c r="L5" s="32">
-        <v>0</v>
-      </c>
-      <c r="M5" s="32">
-        <v>0</v>
-      </c>
-      <c r="N5" s="32">
-        <v>0</v>
-      </c>
-      <c r="O5" s="32">
-        <v>0</v>
-      </c>
-      <c r="P5" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="32">
+        <v>22</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="33">
+        <v>0</v>
+      </c>
+      <c r="D5" s="33">
+        <v>0</v>
+      </c>
+      <c r="E5" s="33">
+        <v>0</v>
+      </c>
+      <c r="F5" s="33">
+        <v>0</v>
+      </c>
+      <c r="G5" s="33">
+        <v>0</v>
+      </c>
+      <c r="H5" s="33">
+        <v>0</v>
+      </c>
+      <c r="I5" s="33">
+        <v>0</v>
+      </c>
+      <c r="J5" s="33">
+        <v>0</v>
+      </c>
+      <c r="K5" s="33">
+        <v>0</v>
+      </c>
+      <c r="L5" s="33">
+        <v>0</v>
+      </c>
+      <c r="M5" s="33">
+        <v>0</v>
+      </c>
+      <c r="N5" s="33">
+        <v>0</v>
+      </c>
+      <c r="O5" s="33">
+        <v>0</v>
+      </c>
+      <c r="P5" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="33">
+        <v>0</v>
+      </c>
+      <c r="R5" s="33">
+        <v>0</v>
+      </c>
+      <c r="S5" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="32">
-        <v>0</v>
-      </c>
-      <c r="C6" s="32">
-        <v>0</v>
-      </c>
-      <c r="D6" s="32">
-        <v>0</v>
-      </c>
-      <c r="E6" s="32">
-        <v>0</v>
-      </c>
-      <c r="F6" s="32">
-        <v>0</v>
-      </c>
-      <c r="G6" s="32">
-        <v>0</v>
-      </c>
-      <c r="H6" s="32">
-        <v>0</v>
-      </c>
-      <c r="I6" s="32">
-        <v>0</v>
-      </c>
-      <c r="J6" s="32">
-        <v>0</v>
-      </c>
-      <c r="K6" s="32">
-        <v>0</v>
-      </c>
-      <c r="L6" s="32">
-        <v>0</v>
-      </c>
-      <c r="M6" s="32">
-        <v>0</v>
-      </c>
-      <c r="N6" s="32">
-        <v>0</v>
-      </c>
-      <c r="O6" s="32">
-        <v>0</v>
-      </c>
-      <c r="P6" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="32">
+        <v>22</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="33">
+        <v>0</v>
+      </c>
+      <c r="D6" s="33">
+        <v>0</v>
+      </c>
+      <c r="E6" s="33">
+        <v>0</v>
+      </c>
+      <c r="F6" s="33">
+        <v>0</v>
+      </c>
+      <c r="G6" s="33">
+        <v>0</v>
+      </c>
+      <c r="H6" s="33">
+        <v>0</v>
+      </c>
+      <c r="I6" s="33">
+        <v>0</v>
+      </c>
+      <c r="J6" s="33">
+        <v>0</v>
+      </c>
+      <c r="K6" s="33">
+        <v>0</v>
+      </c>
+      <c r="L6" s="33">
+        <v>0</v>
+      </c>
+      <c r="M6" s="33">
+        <v>0</v>
+      </c>
+      <c r="N6" s="33">
+        <v>0</v>
+      </c>
+      <c r="O6" s="33">
+        <v>0</v>
+      </c>
+      <c r="P6" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="33">
+        <v>0</v>
+      </c>
+      <c r="R6" s="33">
+        <v>0</v>
+      </c>
+      <c r="S6" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="32">
-        <v>0</v>
-      </c>
-      <c r="C7" s="32">
-        <v>0</v>
-      </c>
-      <c r="D7" s="32">
-        <v>0</v>
-      </c>
-      <c r="E7" s="32">
-        <v>0</v>
-      </c>
-      <c r="F7" s="32">
-        <v>0</v>
-      </c>
-      <c r="G7" s="32">
-        <v>0</v>
-      </c>
-      <c r="H7" s="32">
-        <v>0</v>
-      </c>
-      <c r="I7" s="32">
-        <v>0</v>
-      </c>
-      <c r="J7" s="32">
-        <v>0</v>
-      </c>
-      <c r="K7" s="32">
-        <v>0</v>
-      </c>
-      <c r="L7" s="32">
-        <v>0</v>
-      </c>
-      <c r="M7" s="32">
-        <v>0</v>
-      </c>
-      <c r="N7" s="32">
-        <v>0</v>
-      </c>
-      <c r="O7" s="32">
-        <v>0</v>
-      </c>
-      <c r="P7" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="32">
+        <v>25</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="33">
+        <v>2038</v>
+      </c>
+      <c r="D7" s="33">
+        <v>0</v>
+      </c>
+      <c r="E7" s="33">
+        <v>0</v>
+      </c>
+      <c r="F7" s="33">
+        <v>0</v>
+      </c>
+      <c r="G7" s="33">
+        <v>0</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="33">
+        <v>0</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="33">
+        <v>0</v>
+      </c>
+      <c r="L7" s="33">
+        <v>0</v>
+      </c>
+      <c r="M7" s="33">
+        <v>0</v>
+      </c>
+      <c r="N7" s="33">
+        <v>0</v>
+      </c>
+      <c r="O7" s="33">
+        <v>0</v>
+      </c>
+      <c r="P7" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="33">
+        <v>0</v>
+      </c>
+      <c r="R7" s="33">
+        <v>0</v>
+      </c>
+      <c r="S7" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="32">
-        <v>1</v>
-      </c>
-      <c r="C8" s="32">
-        <v>1</v>
-      </c>
-      <c r="D8" s="32">
-        <v>1</v>
-      </c>
-      <c r="E8" s="32">
-        <v>1</v>
-      </c>
-      <c r="F8" s="32">
-        <v>0</v>
-      </c>
-      <c r="G8" s="32">
-        <v>0</v>
-      </c>
-      <c r="H8" s="32">
-        <v>0</v>
-      </c>
-      <c r="I8" s="32">
-        <v>0</v>
-      </c>
-      <c r="J8" s="32">
-        <v>0</v>
-      </c>
-      <c r="K8" s="32">
-        <v>0</v>
-      </c>
-      <c r="L8" s="32">
-        <v>1</v>
-      </c>
-      <c r="M8" s="32">
-        <v>0</v>
-      </c>
-      <c r="N8" s="32">
-        <v>0</v>
-      </c>
-      <c r="O8" s="32">
-        <v>0</v>
-      </c>
-      <c r="P8" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="32">
+        <v>22</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="33">
+        <v>2056</v>
+      </c>
+      <c r="D8" s="33">
+        <v>0</v>
+      </c>
+      <c r="E8" s="33">
+        <v>0</v>
+      </c>
+      <c r="F8" s="33">
+        <v>0</v>
+      </c>
+      <c r="G8" s="33">
+        <v>0</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="33">
+        <v>0</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="33">
+        <v>0</v>
+      </c>
+      <c r="L8" s="33">
+        <v>0</v>
+      </c>
+      <c r="M8" s="33">
+        <v>0</v>
+      </c>
+      <c r="N8" s="33">
+        <v>0</v>
+      </c>
+      <c r="O8" s="33">
+        <v>0</v>
+      </c>
+      <c r="P8" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="33">
+        <v>0</v>
+      </c>
+      <c r="R8" s="33">
+        <v>0</v>
+      </c>
+      <c r="S8" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="32">
-        <v>2</v>
-      </c>
-      <c r="C9" s="32">
-        <v>2</v>
-      </c>
-      <c r="D9" s="32">
-        <v>2</v>
-      </c>
-      <c r="E9" s="32">
-        <v>2</v>
-      </c>
-      <c r="F9" s="32">
-        <v>0</v>
-      </c>
-      <c r="G9" s="32">
-        <v>0</v>
-      </c>
-      <c r="H9" s="32">
-        <v>0</v>
-      </c>
-      <c r="I9" s="32">
-        <v>0</v>
-      </c>
-      <c r="J9" s="32">
-        <v>0</v>
-      </c>
-      <c r="K9" s="32">
-        <v>0</v>
-      </c>
-      <c r="L9" s="32">
-        <v>2</v>
-      </c>
-      <c r="M9" s="32">
-        <v>0</v>
-      </c>
-      <c r="N9" s="32">
-        <v>0</v>
-      </c>
-      <c r="O9" s="32">
-        <v>0</v>
-      </c>
-      <c r="P9" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="32">
-        <v>0</v>
-      </c>
-      <c r="C10" s="32">
-        <v>0</v>
-      </c>
-      <c r="D10" s="32">
-        <v>0</v>
-      </c>
-      <c r="E10" s="32">
-        <v>0</v>
-      </c>
-      <c r="F10" s="32">
-        <v>0</v>
-      </c>
-      <c r="G10" s="32">
-        <v>0</v>
-      </c>
-      <c r="H10" s="32">
-        <v>0</v>
-      </c>
-      <c r="I10" s="32">
-        <v>0</v>
-      </c>
-      <c r="J10" s="32">
-        <v>0</v>
-      </c>
-      <c r="K10" s="32">
-        <v>0</v>
-      </c>
-      <c r="L10" s="32">
-        <v>0</v>
-      </c>
-      <c r="M10" s="32">
-        <v>0</v>
-      </c>
-      <c r="N10" s="32">
-        <v>0</v>
-      </c>
-      <c r="O10" s="32">
-        <v>0</v>
-      </c>
-      <c r="P10" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="32">
+        <v>30</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="33">
+        <v>0</v>
+      </c>
+      <c r="D9" s="33">
+        <v>0</v>
+      </c>
+      <c r="E9" s="33">
+        <v>0</v>
+      </c>
+      <c r="F9" s="33">
+        <v>0</v>
+      </c>
+      <c r="G9" s="33">
+        <v>0</v>
+      </c>
+      <c r="H9" s="33">
+        <v>0</v>
+      </c>
+      <c r="I9" s="33">
+        <v>0</v>
+      </c>
+      <c r="J9" s="33">
+        <v>0</v>
+      </c>
+      <c r="K9" s="33">
+        <v>0</v>
+      </c>
+      <c r="L9" s="33">
+        <v>0</v>
+      </c>
+      <c r="M9" s="33">
+        <v>0</v>
+      </c>
+      <c r="N9" s="33">
+        <v>0</v>
+      </c>
+      <c r="O9" s="33">
+        <v>0</v>
+      </c>
+      <c r="P9" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="33">
+        <v>0</v>
+      </c>
+      <c r="R9" s="33">
+        <v>0</v>
+      </c>
+      <c r="S9" s="33">
         <v>0</v>
       </c>
     </row>

--- a/Statystyki_2018/Template/okrd_.xlsx
+++ b/Statystyki_2018/Template/okrd_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myProjects\prv\statystyki\Statystyki_2018\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9839B66C-3372-4B8D-B2A7-35A62A5825C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEA311B-36B4-4EFE-8A4E-4B8CFE442634}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>luty 2014r.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>POCZTA</t>
   </si>
@@ -889,7 +886,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -903,9 +900,7 @@
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="26" t="s">
-        <v>0</v>
-      </c>
+      <c r="D1" s="26"/>
       <c r="E1" s="26"/>
       <c r="F1" s="4">
         <v>20</v>
@@ -914,79 +909,79 @@
       <c r="H1" s="27"/>
       <c r="I1" s="27"/>
       <c r="J1" s="28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1" s="28"/>
       <c r="L1" s="29"/>
       <c r="M1" s="29"/>
       <c r="N1" s="5"/>
       <c r="O1" s="30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P1" s="30"/>
       <c r="Q1" s="25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R1" s="25"/>
       <c r="S1" s="6"/>
     </row>
     <row r="2" ht="96.6">
       <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="M2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="O2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="R2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="18" t="s">
+      <c r="S2" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="R2" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" ht="13.8">
@@ -1048,10 +1043,10 @@
     </row>
     <row r="4">
       <c r="A4" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>21</v>
       </c>
       <c r="C4" s="33">
         <v>0</v>
@@ -1107,10 +1102,10 @@
     </row>
     <row r="5">
       <c r="A5" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>23</v>
       </c>
       <c r="C5" s="33">
         <v>0</v>
@@ -1166,10 +1161,10 @@
     </row>
     <row r="6">
       <c r="A6" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="33">
         <v>0</v>
@@ -1225,10 +1220,10 @@
     </row>
     <row r="7">
       <c r="A7" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>26</v>
       </c>
       <c r="C7" s="33">
         <v>2038</v>
@@ -1246,13 +1241,13 @@
         <v>0</v>
       </c>
       <c r="H7" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="33">
+        <v>0</v>
+      </c>
+      <c r="J7" s="33" t="s">
         <v>27</v>
-      </c>
-      <c r="I7" s="33">
-        <v>0</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>28</v>
       </c>
       <c r="K7" s="33">
         <v>0</v>
@@ -1284,10 +1279,10 @@
     </row>
     <row r="8">
       <c r="A8" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="33">
         <v>2056</v>
@@ -1305,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="H8" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="33">
+        <v>0</v>
+      </c>
+      <c r="J8" s="33" t="s">
         <v>27</v>
-      </c>
-      <c r="I8" s="33">
-        <v>0</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>28</v>
       </c>
       <c r="K8" s="33">
         <v>0</v>
@@ -1343,10 +1338,10 @@
     </row>
     <row r="9">
       <c r="A9" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="32" t="s">
         <v>30</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>31</v>
       </c>
       <c r="C9" s="33">
         <v>0</v>

--- a/Statystyki_2018/Template/okrd_.xlsx
+++ b/Statystyki_2018/Template/okrd_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myProjects\prv\statystyki\Statystyki_2018\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEA311B-36B4-4EFE-8A4E-4B8CFE442634}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E48EEEC-238D-450E-9307-61600133A584}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>POCZTA</t>
   </si>
@@ -36,12 +36,12 @@
     <t>CZYNNOŚCI WYKONANE + UTWORZONE</t>
   </si>
   <si>
+    <t>Imię i nazwisko</t>
+  </si>
+  <si>
     <t>Funkcja</t>
   </si>
   <si>
-    <t>Imię i nazwisko</t>
-  </si>
-  <si>
     <t>etat</t>
   </si>
   <si>
@@ -84,24 +84,15 @@
     <t>ilość czynności zakreśłonych bez daty wykonania I</t>
   </si>
   <si>
-    <t>inna funkcja</t>
-  </si>
-  <si>
     <t>Kordyka Krystian</t>
   </si>
   <si>
-    <t>sędzia liniowy</t>
-  </si>
-  <si>
     <t>Kowalewska Ala</t>
   </si>
   <si>
     <t>Kowalewska-KowalewskaKowalewska Ula</t>
   </si>
   <si>
-    <t>przewodniczący wydziału</t>
-  </si>
-  <si>
     <t>Nowak Jan</t>
   </si>
   <si>
@@ -112,9 +103,6 @@
   </si>
   <si>
     <t>Sokołowski Michał</t>
-  </si>
-  <si>
-    <t>prezes</t>
   </si>
   <si>
     <t>trzaskowski tomasz</t>
@@ -241,7 +229,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -365,21 +353,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF008000" tint="0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF008000" tint="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF008000" tint="0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF008000" tint="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -403,7 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
     <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
@@ -496,10 +469,7 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" xfId="0">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" xfId="0">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -886,13 +856,13 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="2" width="51.44140625" customWidth="1"/>
+    <col min="1" max="1" width="51.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
     <col min="3" max="1025" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -902,9 +872,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
-      <c r="F1" s="4">
-        <v>20</v>
-      </c>
+      <c r="F1" s="4"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
       <c r="I1" s="27"/>
@@ -985,7 +953,9 @@
       </c>
     </row>
     <row r="3" ht="13.8">
-      <c r="A3" s="10"/>
+      <c r="A3" s="10">
+        <v>0</v>
+      </c>
       <c r="B3" s="10">
         <v>1</v>
       </c>
@@ -1045,117 +1015,111 @@
       <c r="A4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="33">
-        <v>0</v>
-      </c>
-      <c r="D4" s="33">
-        <v>0</v>
-      </c>
-      <c r="E4" s="33">
-        <v>0</v>
-      </c>
-      <c r="F4" s="33">
-        <v>0</v>
-      </c>
-      <c r="G4" s="33">
-        <v>0</v>
-      </c>
-      <c r="H4" s="33">
-        <v>0</v>
-      </c>
-      <c r="I4" s="33">
-        <v>0</v>
-      </c>
-      <c r="J4" s="33">
-        <v>0</v>
-      </c>
-      <c r="K4" s="33">
-        <v>0</v>
-      </c>
-      <c r="L4" s="33">
-        <v>0</v>
-      </c>
-      <c r="M4" s="33">
-        <v>0</v>
-      </c>
-      <c r="N4" s="33">
-        <v>0</v>
-      </c>
-      <c r="O4" s="33">
-        <v>0</v>
-      </c>
-      <c r="P4" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="33">
-        <v>0</v>
-      </c>
-      <c r="R4" s="33">
-        <v>0</v>
-      </c>
-      <c r="S4" s="33">
+      <c r="B4" s="32">
+        <v>0</v>
+      </c>
+      <c r="C4" s="32">
+        <v>0</v>
+      </c>
+      <c r="D4" s="32">
+        <v>0</v>
+      </c>
+      <c r="E4" s="32">
+        <v>0</v>
+      </c>
+      <c r="F4" s="32">
+        <v>0</v>
+      </c>
+      <c r="G4" s="32">
+        <v>0</v>
+      </c>
+      <c r="H4" s="32">
+        <v>0</v>
+      </c>
+      <c r="I4" s="32">
+        <v>0</v>
+      </c>
+      <c r="J4" s="32">
+        <v>0</v>
+      </c>
+      <c r="K4" s="32">
+        <v>0</v>
+      </c>
+      <c r="L4" s="32">
+        <v>0</v>
+      </c>
+      <c r="M4" s="32">
+        <v>0</v>
+      </c>
+      <c r="N4" s="32">
+        <v>0</v>
+      </c>
+      <c r="O4" s="32">
+        <v>0</v>
+      </c>
+      <c r="P4" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="32">
+        <v>0</v>
+      </c>
+      <c r="R4" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="33">
-        <v>0</v>
-      </c>
-      <c r="D5" s="33">
-        <v>0</v>
-      </c>
-      <c r="E5" s="33">
-        <v>0</v>
-      </c>
-      <c r="F5" s="33">
-        <v>0</v>
-      </c>
-      <c r="G5" s="33">
-        <v>0</v>
-      </c>
-      <c r="H5" s="33">
-        <v>0</v>
-      </c>
-      <c r="I5" s="33">
-        <v>0</v>
-      </c>
-      <c r="J5" s="33">
-        <v>0</v>
-      </c>
-      <c r="K5" s="33">
-        <v>0</v>
-      </c>
-      <c r="L5" s="33">
-        <v>0</v>
-      </c>
-      <c r="M5" s="33">
-        <v>0</v>
-      </c>
-      <c r="N5" s="33">
-        <v>0</v>
-      </c>
-      <c r="O5" s="33">
-        <v>0</v>
-      </c>
-      <c r="P5" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="33">
-        <v>0</v>
-      </c>
-      <c r="R5" s="33">
-        <v>0</v>
-      </c>
-      <c r="S5" s="33">
+        <v>20</v>
+      </c>
+      <c r="B5" s="32">
+        <v>0</v>
+      </c>
+      <c r="C5" s="32">
+        <v>0</v>
+      </c>
+      <c r="D5" s="32">
+        <v>0</v>
+      </c>
+      <c r="E5" s="32">
+        <v>0</v>
+      </c>
+      <c r="F5" s="32">
+        <v>0</v>
+      </c>
+      <c r="G5" s="32">
+        <v>0</v>
+      </c>
+      <c r="H5" s="32">
+        <v>0</v>
+      </c>
+      <c r="I5" s="32">
+        <v>0</v>
+      </c>
+      <c r="J5" s="32">
+        <v>0</v>
+      </c>
+      <c r="K5" s="32">
+        <v>0</v>
+      </c>
+      <c r="L5" s="32">
+        <v>0</v>
+      </c>
+      <c r="M5" s="32">
+        <v>0</v>
+      </c>
+      <c r="N5" s="32">
+        <v>0</v>
+      </c>
+      <c r="O5" s="32">
+        <v>0</v>
+      </c>
+      <c r="P5" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="32">
+        <v>0</v>
+      </c>
+      <c r="R5" s="32">
         <v>0</v>
       </c>
     </row>
@@ -1163,235 +1127,223 @@
       <c r="A6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="33">
-        <v>0</v>
-      </c>
-      <c r="D6" s="33">
-        <v>0</v>
-      </c>
-      <c r="E6" s="33">
-        <v>0</v>
-      </c>
-      <c r="F6" s="33">
-        <v>0</v>
-      </c>
-      <c r="G6" s="33">
-        <v>0</v>
-      </c>
-      <c r="H6" s="33">
-        <v>0</v>
-      </c>
-      <c r="I6" s="33">
-        <v>0</v>
-      </c>
-      <c r="J6" s="33">
-        <v>0</v>
-      </c>
-      <c r="K6" s="33">
-        <v>0</v>
-      </c>
-      <c r="L6" s="33">
-        <v>0</v>
-      </c>
-      <c r="M6" s="33">
-        <v>0</v>
-      </c>
-      <c r="N6" s="33">
-        <v>0</v>
-      </c>
-      <c r="O6" s="33">
-        <v>0</v>
-      </c>
-      <c r="P6" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="33">
-        <v>0</v>
-      </c>
-      <c r="R6" s="33">
-        <v>0</v>
-      </c>
-      <c r="S6" s="33">
+      <c r="B6" s="32">
+        <v>0</v>
+      </c>
+      <c r="C6" s="32">
+        <v>0</v>
+      </c>
+      <c r="D6" s="32">
+        <v>0</v>
+      </c>
+      <c r="E6" s="32">
+        <v>0</v>
+      </c>
+      <c r="F6" s="32">
+        <v>0</v>
+      </c>
+      <c r="G6" s="32">
+        <v>0</v>
+      </c>
+      <c r="H6" s="32">
+        <v>0</v>
+      </c>
+      <c r="I6" s="32">
+        <v>0</v>
+      </c>
+      <c r="J6" s="32">
+        <v>0</v>
+      </c>
+      <c r="K6" s="32">
+        <v>0</v>
+      </c>
+      <c r="L6" s="32">
+        <v>0</v>
+      </c>
+      <c r="M6" s="32">
+        <v>0</v>
+      </c>
+      <c r="N6" s="32">
+        <v>0</v>
+      </c>
+      <c r="O6" s="32">
+        <v>0</v>
+      </c>
+      <c r="P6" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="32">
+        <v>0</v>
+      </c>
+      <c r="R6" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="32">
+        <v>2038</v>
+      </c>
+      <c r="C7" s="32">
+        <v>0</v>
+      </c>
+      <c r="D7" s="32">
+        <v>0</v>
+      </c>
+      <c r="E7" s="32">
+        <v>0</v>
+      </c>
+      <c r="F7" s="32">
+        <v>0</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="32">
+        <v>0</v>
+      </c>
+      <c r="I7" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="33">
-        <v>2038</v>
-      </c>
-      <c r="D7" s="33">
-        <v>0</v>
-      </c>
-      <c r="E7" s="33">
-        <v>0</v>
-      </c>
-      <c r="F7" s="33">
-        <v>0</v>
-      </c>
-      <c r="G7" s="33">
-        <v>0</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="33">
-        <v>0</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="33">
-        <v>0</v>
-      </c>
-      <c r="L7" s="33">
-        <v>0</v>
-      </c>
-      <c r="M7" s="33">
-        <v>0</v>
-      </c>
-      <c r="N7" s="33">
-        <v>0</v>
-      </c>
-      <c r="O7" s="33">
-        <v>0</v>
-      </c>
-      <c r="P7" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="33">
-        <v>0</v>
-      </c>
-      <c r="R7" s="33">
-        <v>0</v>
-      </c>
-      <c r="S7" s="33">
+      <c r="J7" s="32">
+        <v>0</v>
+      </c>
+      <c r="K7" s="32">
+        <v>0</v>
+      </c>
+      <c r="L7" s="32">
+        <v>0</v>
+      </c>
+      <c r="M7" s="32">
+        <v>0</v>
+      </c>
+      <c r="N7" s="32">
+        <v>0</v>
+      </c>
+      <c r="O7" s="32">
+        <v>0</v>
+      </c>
+      <c r="P7" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="32">
+        <v>0</v>
+      </c>
+      <c r="R7" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="33">
+        <v>25</v>
+      </c>
+      <c r="B8" s="32">
         <v>2056</v>
       </c>
-      <c r="D8" s="33">
-        <v>0</v>
-      </c>
-      <c r="E8" s="33">
-        <v>0</v>
-      </c>
-      <c r="F8" s="33">
-        <v>0</v>
-      </c>
-      <c r="G8" s="33">
-        <v>0</v>
-      </c>
-      <c r="H8" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="33">
-        <v>0</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="33">
-        <v>0</v>
-      </c>
-      <c r="L8" s="33">
-        <v>0</v>
-      </c>
-      <c r="M8" s="33">
-        <v>0</v>
-      </c>
-      <c r="N8" s="33">
-        <v>0</v>
-      </c>
-      <c r="O8" s="33">
-        <v>0</v>
-      </c>
-      <c r="P8" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="33">
-        <v>0</v>
-      </c>
-      <c r="R8" s="33">
-        <v>0</v>
-      </c>
-      <c r="S8" s="33">
+      <c r="C8" s="32">
+        <v>0</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0</v>
+      </c>
+      <c r="E8" s="32">
+        <v>0</v>
+      </c>
+      <c r="F8" s="32">
+        <v>0</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="32">
+        <v>0</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="32">
+        <v>0</v>
+      </c>
+      <c r="K8" s="32">
+        <v>0</v>
+      </c>
+      <c r="L8" s="32">
+        <v>0</v>
+      </c>
+      <c r="M8" s="32">
+        <v>0</v>
+      </c>
+      <c r="N8" s="32">
+        <v>0</v>
+      </c>
+      <c r="O8" s="32">
+        <v>0</v>
+      </c>
+      <c r="P8" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="32">
+        <v>0</v>
+      </c>
+      <c r="R8" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="33">
-        <v>0</v>
-      </c>
-      <c r="D9" s="33">
-        <v>0</v>
-      </c>
-      <c r="E9" s="33">
-        <v>0</v>
-      </c>
-      <c r="F9" s="33">
-        <v>0</v>
-      </c>
-      <c r="G9" s="33">
-        <v>0</v>
-      </c>
-      <c r="H9" s="33">
-        <v>0</v>
-      </c>
-      <c r="I9" s="33">
-        <v>0</v>
-      </c>
-      <c r="J9" s="33">
-        <v>0</v>
-      </c>
-      <c r="K9" s="33">
-        <v>0</v>
-      </c>
-      <c r="L9" s="33">
-        <v>0</v>
-      </c>
-      <c r="M9" s="33">
-        <v>0</v>
-      </c>
-      <c r="N9" s="33">
-        <v>0</v>
-      </c>
-      <c r="O9" s="33">
-        <v>0</v>
-      </c>
-      <c r="P9" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="33">
-        <v>0</v>
-      </c>
-      <c r="R9" s="33">
-        <v>0</v>
-      </c>
-      <c r="S9" s="33">
+        <v>26</v>
+      </c>
+      <c r="B9" s="32">
+        <v>0</v>
+      </c>
+      <c r="C9" s="32">
+        <v>0</v>
+      </c>
+      <c r="D9" s="32">
+        <v>0</v>
+      </c>
+      <c r="E9" s="32">
+        <v>0</v>
+      </c>
+      <c r="F9" s="32">
+        <v>0</v>
+      </c>
+      <c r="G9" s="32">
+        <v>0</v>
+      </c>
+      <c r="H9" s="32">
+        <v>0</v>
+      </c>
+      <c r="I9" s="32">
+        <v>0</v>
+      </c>
+      <c r="J9" s="32">
+        <v>0</v>
+      </c>
+      <c r="K9" s="32">
+        <v>0</v>
+      </c>
+      <c r="L9" s="32">
+        <v>0</v>
+      </c>
+      <c r="M9" s="32">
+        <v>0</v>
+      </c>
+      <c r="N9" s="32">
+        <v>0</v>
+      </c>
+      <c r="O9" s="32">
+        <v>0</v>
+      </c>
+      <c r="P9" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="32">
+        <v>0</v>
+      </c>
+      <c r="R9" s="32">
         <v>0</v>
       </c>
     </row>
